--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_MCPS_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_MCPS_No_Lineal_Estacionario_SETAR.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.7211400044162273</v>
+        <v>0.6958597370951037</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.7258043778608845</v>
+        <v>0.7047307197580646</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.7229425387064897</v>
+        <v>0.7057097965912592</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.7447845475734969</v>
+        <v>0.7035325516363372</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.7414558852064858</v>
+        <v>0.7019304081927639</v>
       </c>
     </row>
   </sheetData>
